--- a/files/Ванны ВСМ.xlsx
+++ b/files/Ванны ВСМ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\расходы ЖЕЛЕЗО ФЕВРАЛЬ 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goods\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">разборные!$A$1:$H$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">сварные!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2385,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3422,7 +3422,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3529,10 +3529,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="35">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F5" s="35">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G5" s="35">
         <v>860</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F12" s="131">
         <f>IF(E7=1,E68+E69+E70+E72,E68+E69+E70)</f>
-        <v>5.3191283200000008</v>
+        <v>9.3206643200000023</v>
       </c>
       <c r="G12" s="132"/>
       <c r="H12" s="17">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="I12">
         <f>F12*H12</f>
-        <v>13.297820800000002</v>
+        <v>23.301660800000008</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F16" s="140">
         <f>IF(E7=2,E72,0)</f>
-        <v>3.3032806400000005</v>
+        <v>5.3983846400000006</v>
       </c>
       <c r="G16" s="141"/>
       <c r="H16" s="19">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2.3122964480000001</v>
+        <v>3.7788692480000003</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -3902,13 +3902,15 @@
       </c>
       <c r="F19" s="151">
         <f>F21*0.12</f>
-        <v>5.5968000000000004E-2</v>
+        <v>7.1807999999999983E-2</v>
       </c>
       <c r="G19" s="152"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1807999999999985E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,13 +3927,15 @@
       </c>
       <c r="F20" s="147">
         <f>F21*170/0.27</f>
-        <v>293.65925925925927</v>
+        <v>376.7703703703703</v>
       </c>
       <c r="G20" s="148"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.677037037037032</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3948,13 +3952,15 @@
       </c>
       <c r="F21" s="151">
         <f>(H5*4*0.22/1000+F5*2*0.22/1000+40*4*0.22/1000)*E6</f>
-        <v>0.46640000000000004</v>
+        <v>0.59839999999999993</v>
       </c>
       <c r="G21" s="152"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.9839999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3999,9 +4005,12 @@
         <v>1</v>
       </c>
       <c r="G23" s="109"/>
+      <c r="H23" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4021,6 +4030,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="114"/>
+      <c r="H24" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4043,9 +4055,12 @@
         <v>16</v>
       </c>
       <c r="G25" s="109"/>
+      <c r="H25" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4065,9 +4080,12 @@
         <v>16</v>
       </c>
       <c r="G26" s="109"/>
+      <c r="H26" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4087,9 +4105,12 @@
         <v>3</v>
       </c>
       <c r="G27" s="109"/>
+      <c r="H27" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4109,9 +4130,12 @@
         <v>3</v>
       </c>
       <c r="G28" s="109"/>
+      <c r="H28" s="19">
+        <v>0.1</v>
+      </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4125,7 +4149,7 @@
       <c r="H29" s="14"/>
       <c r="I29">
         <f>SUM(I12:I28)</f>
-        <v>21.763808128000001</v>
+        <v>74.87827876503701</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4161,7 +4185,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>12</v>
       </c>
@@ -4179,7 +4203,7 @@
       <c r="G33" s="68"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
@@ -4195,7 +4219,7 @@
       <c r="G34" s="68"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1</v>
       </c>
@@ -4214,7 +4238,7 @@
       <c r="G35" s="69"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>2</v>
       </c>
@@ -4234,10 +4258,10 @@
       <c r="H36" s="1"/>
       <c r="I36">
         <f>I49+I29</f>
-        <v>33.013808128000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86.308278765037016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>3</v>
       </c>
@@ -4257,10 +4281,14 @@
       <c r="H37" s="1"/>
       <c r="I37">
         <f>I36*1.3</f>
-        <v>42.917950566400002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112.20076239454812</v>
+      </c>
+      <c r="J37">
+        <f>I37*1.2</f>
+        <v>134.64091487345775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>4</v>
       </c>
@@ -4278,8 +4306,16 @@
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f>I37*1.45</f>
+        <v>162.69110547209476</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J39" si="1">I38*1.2</f>
+        <v>195.22932656651372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>5</v>
       </c>
@@ -4290,15 +4326,23 @@
       <c r="D39" s="170"/>
       <c r="E39" s="60">
         <f>0.0002*E5*F39*E6</f>
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="69"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f>I38*1.6</f>
+        <v>260.30576875535161</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>312.36692250642193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>6</v>
       </c>
@@ -4317,7 +4361,7 @@
       <c r="G40" s="69"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>7</v>
       </c>
@@ -4336,7 +4380,7 @@
       <c r="G41" s="69"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>8</v>
       </c>
@@ -4354,7 +4398,7 @@
       <c r="G42" s="69"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>9</v>
       </c>
@@ -4373,7 +4417,7 @@
       <c r="G43" s="69"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>10</v>
       </c>
@@ -4390,7 +4434,7 @@
       </c>
       <c r="G44" s="69"/>
     </row>
-    <row r="45" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4399,12 +4443,12 @@
       </c>
       <c r="E45" s="76">
         <f>SUM(E35:E44)</f>
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="70"/>
     </row>
-    <row r="46" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4413,7 +4457,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="70"/>
     </row>
-    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="92" t="s">
         <v>86</v>
@@ -4422,12 +4466,12 @@
       <c r="D47" s="94"/>
       <c r="E47" s="80">
         <f>E45*0.9</f>
-        <v>2.25</v>
+        <v>2.286</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B48" s="95" t="s">
         <v>87</v>
       </c>
@@ -4435,7 +4479,7 @@
       <c r="D48" s="97"/>
       <c r="E48" s="81">
         <f>E45*0.8</f>
-        <v>2</v>
+        <v>2.032</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4450,7 +4494,7 @@
       <c r="D49" s="100"/>
       <c r="E49" s="82">
         <f>E45*0.75</f>
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -4459,7 +4503,7 @@
       <c r="H49" s="1"/>
       <c r="I49">
         <f>E49*G49</f>
-        <v>11.25</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4539,7 +4583,7 @@
       </c>
       <c r="E68" s="55">
         <f>(E5/E6+21)*(H5+40)*0.8*1.1*8*E6/1000000</f>
-        <v>1.0269952</v>
+        <v>1.4212352000000001</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
@@ -4551,7 +4595,7 @@
       </c>
       <c r="E69" s="55">
         <f>(F5-56)*((E5/E6-36)+H5*2-4+64-4)*0.8*1.1*8*E6/1000000</f>
-        <v>3.1257600000000005</v>
+        <v>6.2853120000000011</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="56"/>
@@ -4563,7 +4607,7 @@
       </c>
       <c r="E70" s="55">
         <f>(E5/E6+21)*(H5+78)*0.8*8*1.1*E6/1000000</f>
-        <v>1.16637312</v>
+        <v>1.6141171200000004</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="56"/>
@@ -4582,14 +4626,14 @@
       </c>
       <c r="E72" s="55">
         <f>IF(E7=0,(496*(F5*2-54)*7.85*0.8*1.1)/1000000*E6,(496*(F5*2-54)*0.8*8*1.1)/1000000*E6)</f>
-        <v>3.3032806400000005</v>
+        <v>5.3983846400000006</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="56"/>
       <c r="H72" s="56"/>
       <c r="I72">
         <f>496*(F5-54)*2*E6/1000000</f>
-        <v>0.44243199999999999</v>
+        <v>0.74003200000000002</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">

--- a/files/Ванны ВСМ.xlsx
+++ b/files/Ванны ВСМ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="360" windowWidth="14850" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="360" windowWidth="14850" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="сварные" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,67 @@
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="D66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Пользователь Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ошибка?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Пользователь Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Это вообще что такое?
+Поменять 2,4 материал
+кф2 поменять
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -781,8 +842,21 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,6 +967,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -1606,7 +1686,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1813,193 +1893,6 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2034,7 +1927,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="34" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="30" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2382,11 +2471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2404,27 +2493,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="J1" s="85" t="s">
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="J1" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="160"/>
     </row>
     <row r="2" spans="1:13" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="45" t="s">
         <v>44</v>
       </c>
@@ -2493,16 +2582,16 @@
         <v>37</v>
       </c>
       <c r="E5" s="35">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F5" s="35">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G5" s="35">
-        <v>860</v>
+        <v>100</v>
       </c>
       <c r="H5" s="35">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>49</v>
@@ -2518,11 +2607,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
@@ -2546,11 +2635,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="59" t="s">
         <v>72</v>
       </c>
@@ -2597,15 +2686,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="30"/>
       <c r="J9" s="52" t="s">
         <v>53</v>
@@ -2624,18 +2713,18 @@
       <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="122"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="27"/>
       <c r="J10" s="75" t="s">
         <v>54</v>
@@ -2654,16 +2743,16 @@
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="17"/>
       <c r="I11" s="24"/>
     </row>
@@ -2671,61 +2760,77 @@
       <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="153">
         <f>E60+E61+E62</f>
-        <v>5.3191283200000008</v>
-      </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+        <v>0.37000832000000006</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <f>F12*H12</f>
+        <v>0.9250208000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="121">
         <f>IF(E7=1,E65+E66+E67,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I15" si="0">F13*H13</f>
+        <v>0</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="133">
         <f>IF(E7=0,IF(E6=1,E65+E66,E66),0)</f>
-        <v>4.6516675920000008</v>
-      </c>
-      <c r="G14" s="150"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="3"/>
+        <v>0.47536711199999998</v>
+      </c>
+      <c r="G14" s="134"/>
+      <c r="H14" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.28522026719999999</v>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="M14" s="22"/>
@@ -2734,21 +2839,26 @@
       <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="121">
         <f>IF(E7=0,IF(E6=1,0,E64+E67),0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
@@ -2756,180 +2866,241 @@
       <c r="A16" s="18">
         <v>4</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="135">
         <f>F18*0.12</f>
-        <v>5.5968000000000004E-2</v>
-      </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.0064000000000002E-2</v>
+      </c>
+      <c r="G16" s="136"/>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I24" si="1">F16*H16</f>
+        <v>2.0064000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>5</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="147">
+      <c r="F17" s="131">
         <f>F18*170/0.27</f>
-        <v>293.65925925925927</v>
-      </c>
-      <c r="G17" s="148"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105.27407407407408</v>
+      </c>
+      <c r="G17" s="132"/>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>105.27407407407408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>6</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="135">
         <f>(H5*4*0.22/1000+F5*2*0.22/1000+40*4*0.22/1000)*E6</f>
-        <v>0.46640000000000004</v>
-      </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.16720000000000002</v>
+      </c>
+      <c r="G18" s="136"/>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.16720000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="142">
+      <c r="F19" s="126">
         <f>IF(E7=0,0.03,0)</f>
         <v>0.03</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="127"/>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>8</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="175">
         <f>IF(E7=1,0.03,0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="176"/>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>9</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="107">
         <v>9</v>
       </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="108"/>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>10</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="109">
         <f>IF(E5&lt;1500,4,6)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="109"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="110"/>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>11</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
       <c r="E23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="109">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="G23" s="109"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G23" s="110"/>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="107">
         <f>IF(E7=0,(I65+I67)*0.11,0)</f>
-        <v>9.0247520000000012E-2</v>
-      </c>
-      <c r="G24" s="114"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9.1467200000000005E-3</v>
+      </c>
+      <c r="G24" s="108"/>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>9.1467200000000005E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="156"/>
       <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f>SUM(I12:I24)</f>
+        <v>120.71072586127408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -2938,20 +3109,28 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="101" t="s">
+      <c r="I26">
+        <f>I25+I40</f>
+        <v>139.37072586127408</v>
+      </c>
+      <c r="J26">
+        <f>I26*1.3</f>
+        <v>181.18194361965632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
@@ -2962,15 +3141,15 @@
       <c r="H28" s="14"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="158"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="12" t="s">
         <v>10</v>
       </c>
@@ -2980,13 +3159,13 @@
       <c r="G29" s="68"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="9" t="s">
         <v>8</v>
       </c>
@@ -2996,15 +3175,15 @@
       <c r="G30" s="68"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="63">
         <f>(0.15+0.15*E6)*F31</f>
         <v>0.6</v>
@@ -3015,15 +3194,15 @@
       <c r="G31" s="69"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="60">
         <f>(0.1+0.15*E6)*F32</f>
         <v>0.25</v>
@@ -3034,15 +3213,15 @@
       <c r="G32" s="69"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>3</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="60">
         <f>(0.15+0.2*E6)*F33</f>
         <v>0.7</v>
@@ -3053,15 +3232,15 @@
       <c r="G33" s="69"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>4</v>
       </c>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="60">
         <f>0.3*E6*F34</f>
         <v>0.3</v>
@@ -3072,15 +3251,15 @@
       <c r="G34" s="69"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>5</v>
       </c>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="60">
         <f>(0.2+E6*0.07)*F35</f>
         <v>0.54</v>
@@ -3091,18 +3270,18 @@
       <c r="G35" s="69"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="168" t="s">
+      <c r="B36" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="60">
         <f>0.0002*F5*F36*E6</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -3110,15 +3289,15 @@
       <c r="G36" s="69"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="60">
         <f>IF(E7=0,E69,0)*F37</f>
         <v>0.2</v>
@@ -3129,15 +3308,15 @@
       <c r="G37" s="69"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="173"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="60">
         <f>0.3*F38</f>
         <v>0.3</v>
@@ -3148,15 +3327,15 @@
       <c r="G38" s="69"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="164"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91"/>
       <c r="E39" s="62">
         <v>0.2</v>
       </c>
@@ -3165,7 +3344,7 @@
       </c>
       <c r="G39" s="69"/>
     </row>
-    <row r="40" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3174,65 +3353,71 @@
       </c>
       <c r="E40" s="76">
         <f>SUM(E31:E39)</f>
-        <v>3.19</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>3.11</v>
+      </c>
+      <c r="F40" s="184">
+        <v>6</v>
+      </c>
       <c r="G40" s="70"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="92" t="s">
+      <c r="I40">
+        <f>E40*F40</f>
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="94"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="77">
         <f>E40*0.9</f>
-        <v>2.871</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B44" s="95" t="s">
+        <v>2.7989999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="78">
         <f>E40*0.8</f>
-        <v>2.552</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="98" t="s">
+        <v>2.488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="172"/>
       <c r="E45" s="79">
         <f>E40*0.7</f>
-        <v>2.2329999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.1769999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D58" s="89" t="s">
+      <c r="D58" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D60" s="54" t="s">
@@ -3240,7 +3425,7 @@
       </c>
       <c r="E60" s="55">
         <f>(E5/E6+21)*(H5+40)*0.8*1.1*8*E6/1000000</f>
-        <v>1.0269952</v>
+        <v>0.11925760000000001</v>
       </c>
       <c r="F60" s="56"/>
       <c r="G60" s="56"/>
@@ -3252,7 +3437,7 @@
       </c>
       <c r="E61" s="55">
         <f>(F5-56)*((E5/E6-36)+H5*2-4+64-4)*0.8*1.1*8*E6/1000000</f>
-        <v>3.1257600000000005</v>
+        <v>9.9123200000000009E-2</v>
       </c>
       <c r="F61" s="56"/>
       <c r="G61" s="56"/>
@@ -3264,7 +3449,7 @@
       </c>
       <c r="E62" s="55">
         <f>(E5/E6+21)*(H5+78)*0.8*8*1.1*E6/1000000</f>
-        <v>1.16637312</v>
+        <v>0.15162752000000002</v>
       </c>
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
@@ -3283,7 +3468,7 @@
       </c>
       <c r="E64" s="54">
         <f>IF(E7=0,((43*(F5-50)*6*7.85*1.5*1.1)/1000000+43*(E5-32)*F65*7.85*1.5*1.1/1000000),0)</f>
-        <v>2.5464096899999999</v>
+        <v>0.31857968999999997</v>
       </c>
       <c r="F64" s="56"/>
       <c r="G64" s="56"/>
@@ -3295,7 +3480,7 @@
       </c>
       <c r="E65" s="55">
         <f>IF(E7=0,((43*(F5-50)*6*7.85*1.2*1.1)/1000000+43*(E5-32)*F65*7.85*1.2*1.1/1000000),((43*(F5-50)*6*1.2*8*1.1)/1000000+43*(E5-27)*F65*8*1.2*1.1/1000000))</f>
-        <v>2.037127752</v>
+        <v>0.254863752</v>
       </c>
       <c r="F65" s="56">
         <f>IF(E5&gt;600,IF(E5&lt;1000,5,6),4)</f>
@@ -3305,7 +3490,7 @@
       <c r="H65" s="56"/>
       <c r="I65">
         <f>(43*(F5-50)*F65*2+43*(E5-32)*F65*2+76*(G5-30)*F66*2)/1000000</f>
-        <v>0.82043200000000005</v>
+        <v>8.3152000000000004E-2</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
@@ -3314,7 +3499,7 @@
       </c>
       <c r="E66" s="55">
         <f>IF(E7=0,((76*(G5-30)*1.2*7.85*1.1*F66)/1000000),((76*(G5-30)*1.2*8*1.1*F66)/1000000))</f>
-        <v>2.6145398400000004</v>
+        <v>0.22050335999999998</v>
       </c>
       <c r="F66" s="56">
         <f>IF(E5&lt;1500,4,6)</f>
@@ -3342,7 +3527,7 @@
       </c>
       <c r="H67" s="56"/>
       <c r="I67">
-        <f>70*(E5-27)*F67/1000000*2</f>
+        <f>70 * (E5 - 27) * 0 / 1000000 * 2</f>
         <v>0</v>
       </c>
     </row>
@@ -3357,21 +3542,27 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D58:H59"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:G9"/>
@@ -3388,32 +3579,27 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D58:H59"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3421,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3440,27 +3626,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="J1" s="85" t="s">
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="J1" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="160"/>
     </row>
     <row r="2" spans="1:13" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="45" t="s">
         <v>44</v>
       </c>
@@ -3529,16 +3715,16 @@
         <v>37</v>
       </c>
       <c r="E5" s="35">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F5" s="35">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G5" s="35">
-        <v>860</v>
+        <v>100</v>
       </c>
       <c r="H5" s="35">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>49</v>
@@ -3554,11 +3740,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
@@ -3582,16 +3768,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="59" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -3633,15 +3819,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="30"/>
       <c r="J9" s="50" t="s">
         <v>53</v>
@@ -3660,18 +3846,18 @@
       <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="122"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="27"/>
       <c r="J10" s="52" t="s">
         <v>54</v>
@@ -3690,16 +3876,16 @@
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="17"/>
       <c r="I11" s="24"/>
     </row>
@@ -3707,44 +3893,44 @@
       <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="153">
         <f>IF(E7=1,E68+E69+E70+E72,E68+E69+E70)</f>
-        <v>9.3206643200000023</v>
-      </c>
-      <c r="G12" s="132"/>
+        <v>0.37000832000000006</v>
+      </c>
+      <c r="G12" s="154"/>
       <c r="H12" s="17">
         <v>2.5</v>
       </c>
       <c r="I12">
         <f>F12*H12</f>
-        <v>23.301660800000008</v>
+        <v>0.9250208000000002</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="121">
         <f>IF(E7=1,E73,0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="141"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="17">
         <v>2.5</v>
       </c>
@@ -3763,22 +3949,22 @@
       <c r="B14" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="121">
         <f>IF(E7=0,E72,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="141"/>
+        <v>0.500249728</v>
+      </c>
+      <c r="G14" s="122"/>
       <c r="H14" s="17">
         <v>0.6</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30014983680000001</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -3791,22 +3977,22 @@
       <c r="B15" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="121">
         <f>IF(E7=0,E73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="141"/>
+        <v>0.22340472</v>
+      </c>
+      <c r="G15" s="122"/>
       <c r="H15" s="19">
         <v>0.6</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.134042832</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -3818,22 +4004,22 @@
       <c r="B16" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="121">
         <f>IF(E7=2,E72,0)</f>
-        <v>5.3983846400000006</v>
-      </c>
-      <c r="G16" s="141"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="122"/>
       <c r="H16" s="19">
         <v>0.7</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>3.7788692480000003</v>
+        <v>0</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -3845,22 +4031,22 @@
       <c r="B17" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="121">
         <f>IF(E7=2,E73,0)</f>
-        <v>2.6995584000000004</v>
-      </c>
-      <c r="G17" s="141"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="122"/>
       <c r="H17" s="19">
         <v>0.7</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>1.8896908800000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3870,16 +4056,16 @@
       <c r="B18" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="121">
         <f>E6*0.08</f>
         <v>0.08</v>
       </c>
-      <c r="G18" s="141"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="19">
         <v>3.3</v>
       </c>
@@ -3892,94 +4078,94 @@
       <c r="A19" s="18">
         <v>8</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="151">
+      <c r="F19" s="135">
         <f>F21*0.12</f>
-        <v>7.1807999999999983E-2</v>
-      </c>
-      <c r="G19" s="152"/>
+        <v>2.0064000000000002E-2</v>
+      </c>
+      <c r="G19" s="136"/>
       <c r="H19" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>7.1807999999999985E-3</v>
+        <v>2.0064000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>9</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="147">
+      <c r="F20" s="131">
         <f>F21*170/0.27</f>
-        <v>376.7703703703703</v>
-      </c>
-      <c r="G20" s="148"/>
+        <v>105.27407407407408</v>
+      </c>
+      <c r="G20" s="132"/>
       <c r="H20" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>37.677037037037032</v>
+        <v>105.27407407407408</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>10</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="135">
         <f>(H5*4*0.22/1000+F5*2*0.22/1000+40*4*0.22/1000)*E6</f>
-        <v>0.59839999999999993</v>
-      </c>
-      <c r="G21" s="152"/>
+        <v>0.16720000000000002</v>
+      </c>
+      <c r="G21" s="136"/>
       <c r="H21" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>5.9839999999999997E-2</v>
+        <v>0.16720000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>11</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="109">
         <f>4*E6</f>
         <v>4</v>
       </c>
-      <c r="G22" s="109"/>
+      <c r="G22" s="110"/>
       <c r="H22">
         <v>1</v>
       </c>
@@ -3992,164 +4178,164 @@
       <c r="A23" s="18">
         <v>12</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="108">
+      <c r="F23" s="109">
         <f>E6</f>
         <v>1</v>
       </c>
-      <c r="G23" s="109"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>13</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="107">
         <f>IF(E7=0,(I72+I73)*0.11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="114"/>
+        <v>9.762719999999999E-3</v>
+      </c>
+      <c r="G24" s="108"/>
       <c r="H24" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.762719999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>14</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="108">
+      <c r="F25" s="109">
         <f>16*E6</f>
         <v>16</v>
       </c>
-      <c r="G25" s="109"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>15</v>
       </c>
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="108">
+      <c r="F26" s="109">
         <f>16*E6</f>
         <v>16</v>
       </c>
-      <c r="G26" s="109"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="64">
         <v>16</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="108">
+      <c r="F27" s="109">
         <f>3*E6</f>
         <v>3</v>
       </c>
-      <c r="G27" s="109"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="64">
         <v>17</v>
       </c>
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="108">
+      <c r="F28" s="109">
         <f>3*E6</f>
         <v>3</v>
       </c>
-      <c r="G28" s="109"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="14"/>
       <c r="I29">
         <f>SUM(I12:I28)</f>
-        <v>74.87827876503701</v>
+        <v>150.09431426287406</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4163,14 +4349,14 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
@@ -4189,11 +4375,11 @@
       <c r="A33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="158"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="12" t="s">
         <v>10</v>
       </c>
@@ -4207,9 +4393,9 @@
       <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="161"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="9" t="s">
         <v>8</v>
       </c>
@@ -4223,11 +4409,11 @@
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="63">
         <f>(0.15+0.15*E6)*F35</f>
         <v>0.6</v>
@@ -4242,11 +4428,11 @@
       <c r="A36" s="7">
         <v>2</v>
       </c>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="D36" s="167"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="60">
         <f>(0.1+0.15*E6)*F36</f>
         <v>0.25</v>
@@ -4258,18 +4444,18 @@
       <c r="H36" s="1"/>
       <c r="I36">
         <f>I49+I29</f>
-        <v>86.308278765037016</v>
+        <v>165.51431426287405</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="60">
         <f>(0.15+0.2*E6)*F37</f>
         <v>0.7</v>
@@ -4281,22 +4467,22 @@
       <c r="H37" s="1"/>
       <c r="I37">
         <f>I36*1.3</f>
-        <v>112.20076239454812</v>
+        <v>215.16860854173626</v>
       </c>
       <c r="J37">
         <f>I37*1.2</f>
-        <v>134.64091487345775</v>
+        <v>258.20233025008349</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>4</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="60">
         <f>0.3*E6*F38*E6</f>
         <v>0.3</v>
@@ -4308,25 +4494,25 @@
       <c r="H38" s="1"/>
       <c r="I38">
         <f>I37*1.45</f>
-        <v>162.69110547209476</v>
+        <v>311.99448238551759</v>
       </c>
       <c r="J38">
         <f t="shared" ref="J38:J39" si="1">I38*1.2</f>
-        <v>195.22932656651372</v>
+        <v>374.39337886262109</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>5</v>
       </c>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="169"/>
-      <c r="D39" s="170"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="60">
         <f>0.0002*E5*F39*E6</f>
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -4335,25 +4521,25 @@
       <c r="H39" s="1"/>
       <c r="I39">
         <f>I38*1.6</f>
-        <v>260.30576875535161</v>
+        <v>499.19117181682816</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>312.36692250642193</v>
+        <v>599.02940618019375</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>6</v>
       </c>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="D40" s="167"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="60">
         <f>IF(E7=0,0.15*E6,0)*F40</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F40" s="67">
         <v>1</v>
@@ -4365,11 +4551,11 @@
       <c r="A41" s="7">
         <v>7</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="60">
         <f>(0.05+0.05*E6)*F41</f>
         <v>0.1</v>
@@ -4384,11 +4570,11 @@
       <c r="A42" s="7">
         <v>8</v>
       </c>
-      <c r="B42" s="171" t="s">
+      <c r="B42" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="173"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="61">
         <v>0.1</v>
       </c>
@@ -4402,11 +4588,11 @@
       <c r="A43" s="7">
         <v>9</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="172"/>
-      <c r="D43" s="173"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="61">
         <f>0.15*E6</f>
         <v>0.15</v>
@@ -4421,11 +4607,11 @@
       <c r="A44" s="6">
         <v>10</v>
       </c>
-      <c r="B44" s="162" t="s">
+      <c r="B44" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="164"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="62">
         <v>0.2</v>
       </c>
@@ -4443,7 +4629,7 @@
       </c>
       <c r="E45" s="76">
         <f>SUM(E35:E44)</f>
-        <v>2.54</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="70"/>
@@ -4459,27 +4645,27 @@
     </row>
     <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="80">
         <f>E45*0.9</f>
-        <v>2.286</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="169"/>
       <c r="E48" s="81">
         <f>E45*0.8</f>
-        <v>2.032</v>
+        <v>2.0560000000000005</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4487,14 +4673,14 @@
     </row>
     <row r="49" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="100"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="82">
         <f>E45*0.75</f>
-        <v>1.905</v>
+        <v>1.9275000000000002</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -4502,8 +4688,8 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49">
-        <f>E49*G49</f>
-        <v>11.43</v>
+        <f>E45*G49</f>
+        <v>15.420000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4562,20 +4748,20 @@
       <c r="H55" s="1"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="89" t="s">
+      <c r="D66" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="161"/>
+      <c r="H66" s="161"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="162"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68" s="54" t="s">
@@ -4583,7 +4769,7 @@
       </c>
       <c r="E68" s="55">
         <f>(E5/E6+21)*(H5+40)*0.8*1.1*8*E6/1000000</f>
-        <v>1.4212352000000001</v>
+        <v>0.11925760000000001</v>
       </c>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
@@ -4595,7 +4781,7 @@
       </c>
       <c r="E69" s="55">
         <f>(F5-56)*((E5/E6-36)+H5*2-4+64-4)*0.8*1.1*8*E6/1000000</f>
-        <v>6.2853120000000011</v>
+        <v>9.9123200000000009E-2</v>
       </c>
       <c r="F69" s="56"/>
       <c r="G69" s="56"/>
@@ -4607,7 +4793,7 @@
       </c>
       <c r="E70" s="55">
         <f>(E5/E6+21)*(H5+78)*0.8*8*1.1*E6/1000000</f>
-        <v>1.6141171200000004</v>
+        <v>0.15162752000000002</v>
       </c>
       <c r="F70" s="56"/>
       <c r="G70" s="56"/>
@@ -4626,14 +4812,14 @@
       </c>
       <c r="E72" s="55">
         <f>IF(E7=0,(496*(F5*2-54)*7.85*0.8*1.1)/1000000*E6,(496*(F5*2-54)*0.8*8*1.1)/1000000*E6)</f>
-        <v>5.3983846400000006</v>
+        <v>0.500249728</v>
       </c>
       <c r="F72" s="56"/>
       <c r="G72" s="56"/>
       <c r="H72" s="56"/>
       <c r="I72">
         <f>496*(F5-54)*2*E6/1000000</f>
-        <v>0.74003200000000002</v>
+        <v>4.5631999999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
@@ -4642,31 +4828,50 @@
       </c>
       <c r="E73" s="55">
         <f>IF(E7=0,((77*(G5-30)*1.2*7.85*1.1*4*E6)/1000000),((77*(G5-30)*1.2*8*1.1*4*E6)/1000000))</f>
-        <v>2.6995584000000004</v>
+        <v>0.22340472</v>
       </c>
       <c r="F73" s="56"/>
       <c r="G73" s="56"/>
       <c r="H73" s="56"/>
       <c r="I73">
         <f>77*(G5-30)*2*4*E6/1000000</f>
-        <v>0.51127999999999996</v>
+        <v>4.3119999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="D66:H67"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B13:D13"/>
@@ -4683,42 +4888,23 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="D66:H67"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>